--- a/data/Csrc_pe.xlsx
+++ b/data/Csrc_pe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="152">
   <si>
     <t>序号</t>
   </si>
@@ -380,6 +380,146 @@
   </si>
   <si>
     <t>私募行业的运营中，高管人数相对一般企业较少，对于高管的工作能力有较高要求，实际控制人、法人代表、高管年龄异常的私募管理人，可能不具备合格的经营能力，经营稳定性存在较大的风险，甚至为非法集资机构，需引起关注。</t>
+  </si>
+  <si>
+    <t>映射名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csrcPunish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investorsNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivalRateLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lossMoreTwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundsNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibitionTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllerIsNature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiredFundScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationMoreOrganization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgProductLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgScaleLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employeePayLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manageMoreProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debtRatioHigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staffFollowHigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualificationLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllerRegisteredCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherIncomeFifty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>managementExpenseLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundProductZero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleNaturalPersonShareholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aboveSixtyBelowThirty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lackQualification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockAndBond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>widelyDistributed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundGrowthFifty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualOperationYearLow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlMoreTwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelRegistration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerThanFiveMillion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffRegAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topFiveRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singlePersistence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -746,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:G35"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="82.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,13 +897,14 @@
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="82.875" style="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="82.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -780,13 +921,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -802,12 +946,15 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>9</v>
       </c>
@@ -823,12 +970,15 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -844,12 +994,15 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>29</v>
       </c>
@@ -865,12 +1018,15 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -886,12 +1042,15 @@
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>52</v>
       </c>
@@ -907,12 +1066,15 @@
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>53</v>
       </c>
@@ -928,12 +1090,15 @@
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>54</v>
       </c>
@@ -949,12 +1114,15 @@
       <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>24</v>
       </c>
@@ -970,12 +1138,15 @@
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>49</v>
       </c>
@@ -991,12 +1162,15 @@
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1013,13 +1187,16 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>21</v>
       </c>
@@ -1035,12 +1212,15 @@
       <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>36</v>
       </c>
@@ -1056,12 +1236,15 @@
       <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>37</v>
       </c>
@@ -1077,12 +1260,15 @@
       <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>38</v>
       </c>
@@ -1098,12 +1284,15 @@
       <c r="E16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>39</v>
       </c>
@@ -1119,12 +1308,15 @@
       <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1140,12 +1332,15 @@
       <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -1161,12 +1356,15 @@
       <c r="E19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>28</v>
       </c>
@@ -1182,12 +1380,15 @@
       <c r="E20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>42</v>
       </c>
@@ -1203,12 +1404,15 @@
       <c r="E21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43</v>
       </c>
@@ -1224,12 +1428,15 @@
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>44</v>
       </c>
@@ -1245,12 +1452,15 @@
       <c r="E23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>45</v>
       </c>
@@ -1266,12 +1476,15 @@
       <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -1287,12 +1500,15 @@
       <c r="E25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -1308,12 +1524,15 @@
       <c r="E26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -1329,12 +1548,15 @@
       <c r="E27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -1350,12 +1572,15 @@
       <c r="E28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>23</v>
       </c>
@@ -1371,12 +1596,15 @@
       <c r="E29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -1392,12 +1620,15 @@
       <c r="E30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -1413,12 +1644,15 @@
       <c r="E31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>40</v>
       </c>
@@ -1434,12 +1668,15 @@
       <c r="E32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -1455,12 +1692,15 @@
       <c r="E33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>27</v>
       </c>
@@ -1476,12 +1716,15 @@
       <c r="E34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>41</v>
       </c>
@@ -1497,8 +1740,11 @@
       <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1511,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1544,7 +1790,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1568,341 +1816,37 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
